--- a/Code/Results/Cases/Case_3_185/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_185/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.48453579083282</v>
+        <v>22.05824823270341</v>
       </c>
       <c r="C2">
-        <v>6.492199279066611</v>
+        <v>3.908675865430624</v>
       </c>
       <c r="D2">
-        <v>1.898812745851972</v>
+        <v>4.121503047402403</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>41.60241331182473</v>
+        <v>56.17646139172216</v>
       </c>
       <c r="G2">
-        <v>2.1762450682719</v>
+        <v>3.80367133135899</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.405554142244426</v>
+        <v>10.72874743689601</v>
       </c>
       <c r="K2">
-        <v>13.88507102162646</v>
+        <v>18.05322289120867</v>
       </c>
       <c r="L2">
-        <v>6.509942272831469</v>
+        <v>11.43017458836336</v>
       </c>
       <c r="M2">
-        <v>12.19771132608522</v>
+        <v>19.39557772768245</v>
       </c>
       <c r="N2">
-        <v>18.96228362396931</v>
+        <v>27.24314928207849</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.71925749487193</v>
+        <v>21.97222296887922</v>
       </c>
       <c r="C3">
-        <v>6.066540800971819</v>
+        <v>3.69404948403072</v>
       </c>
       <c r="D3">
-        <v>1.914414088215288</v>
+        <v>4.128140318954047</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>40.96132441937151</v>
+        <v>56.15065750823043</v>
       </c>
       <c r="G3">
-        <v>2.184733793329127</v>
+        <v>3.80676274366199</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.441819058623569</v>
+        <v>10.74298259935834</v>
       </c>
       <c r="K3">
-        <v>13.30468713123892</v>
+        <v>17.99591887213701</v>
       </c>
       <c r="L3">
-        <v>6.474939635299324</v>
+        <v>11.44843577453275</v>
       </c>
       <c r="M3">
-        <v>11.957395933219</v>
+        <v>19.40663935041466</v>
       </c>
       <c r="N3">
-        <v>19.06555568464278</v>
+        <v>27.27766621820211</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.24375475274885</v>
+        <v>21.92440233397227</v>
       </c>
       <c r="C4">
-        <v>5.792194746909765</v>
+        <v>3.555005187740258</v>
       </c>
       <c r="D4">
-        <v>1.92353833123952</v>
+        <v>4.132638628594753</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>40.58749916099347</v>
+        <v>56.14365848178091</v>
       </c>
       <c r="G4">
-        <v>2.190091375872552</v>
+        <v>3.808761097760898</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.465029515506411</v>
+        <v>10.75225109950155</v>
       </c>
       <c r="K4">
-        <v>12.94526375234071</v>
+        <v>17.96475574452864</v>
       </c>
       <c r="L4">
-        <v>6.456120606768098</v>
+        <v>11.4609957131474</v>
       </c>
       <c r="M4">
-        <v>11.81448260717384</v>
+        <v>19.41659691712251</v>
       </c>
       <c r="N4">
-        <v>19.13379932097912</v>
+        <v>27.30070333921554</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.0488346617249</v>
+        <v>21.9061870528579</v>
       </c>
       <c r="C5">
-        <v>5.677105110156791</v>
+        <v>3.496537203790947</v>
       </c>
       <c r="D5">
-        <v>1.927149119139411</v>
+        <v>4.134578389374596</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>40.44010644598406</v>
+        <v>56.14303311443463</v>
       </c>
       <c r="G5">
-        <v>2.192312615034698</v>
+        <v>3.809600730413812</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.474727896302006</v>
+        <v>10.75616124683982</v>
       </c>
       <c r="K5">
-        <v>12.79822351604812</v>
+        <v>17.95307711021086</v>
       </c>
       <c r="L5">
-        <v>6.449115000382672</v>
+        <v>11.46645323539191</v>
       </c>
       <c r="M5">
-        <v>11.75745026733298</v>
+        <v>19.42145157915181</v>
       </c>
       <c r="N5">
-        <v>19.16279516640628</v>
+        <v>27.31055495904103</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.01640735376272</v>
+        <v>21.90323965057105</v>
       </c>
       <c r="C6">
-        <v>5.657795161832927</v>
+        <v>3.48672022416215</v>
       </c>
       <c r="D6">
-        <v>1.927742399662137</v>
+        <v>4.134906936087219</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>40.41592941631386</v>
+        <v>56.143063825585</v>
       </c>
       <c r="G6">
-        <v>2.192683783494117</v>
+        <v>3.809741680625869</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.476352871896363</v>
+        <v>10.7568185773015</v>
       </c>
       <c r="K6">
-        <v>12.77377931259539</v>
+        <v>17.95119977230731</v>
       </c>
       <c r="L6">
-        <v>6.447991522109101</v>
+        <v>11.46737995393564</v>
       </c>
       <c r="M6">
-        <v>11.74805404310246</v>
+        <v>19.42230584121022</v>
       </c>
       <c r="N6">
-        <v>19.16768071792505</v>
+        <v>27.31221883228639</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.24113026875064</v>
+        <v>21.92415150748381</v>
       </c>
       <c r="C7">
-        <v>5.790655963160199</v>
+        <v>3.554223951726668</v>
       </c>
       <c r="D7">
-        <v>1.923587453451338</v>
+        <v>4.132664356604496</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>40.58549140549498</v>
+        <v>56.14364102891841</v>
       </c>
       <c r="G7">
-        <v>2.190121176703073</v>
+        <v>3.808772318838366</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.465159336350839</v>
+        <v>10.75230329346495</v>
       </c>
       <c r="K7">
-        <v>12.94328275303297</v>
+        <v>17.9645940986396</v>
       </c>
       <c r="L7">
-        <v>6.4560234529047</v>
+        <v>11.46106794108498</v>
       </c>
       <c r="M7">
-        <v>11.81370851545726</v>
+        <v>19.416659161365</v>
       </c>
       <c r="N7">
-        <v>19.1341856042677</v>
+        <v>27.30083432342846</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.22198114728751</v>
+        <v>22.02755855969775</v>
       </c>
       <c r="C8">
-        <v>6.348111403978534</v>
+        <v>3.836190635682674</v>
       </c>
       <c r="D8">
-        <v>1.904290844253923</v>
+        <v>4.123703963056392</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>41.37723493018475</v>
+        <v>56.16573041723102</v>
       </c>
       <c r="G8">
-        <v>2.17914265812636</v>
+        <v>3.804716503503792</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.417864053207269</v>
+        <v>10.73354634929117</v>
       </c>
       <c r="K8">
-        <v>13.68570212151208</v>
+        <v>18.03263565393399</v>
       </c>
       <c r="L8">
-        <v>6.497313452505344</v>
+        <v>11.43619162099668</v>
       </c>
       <c r="M8">
-        <v>12.11391081510723</v>
+        <v>19.39873530056292</v>
       </c>
       <c r="N8">
-        <v>18.99686992473394</v>
+        <v>27.25466821930199</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.09115765955622</v>
+        <v>22.26927907917691</v>
       </c>
       <c r="C9">
-        <v>7.339650502831948</v>
+        <v>4.330845605356325</v>
       </c>
       <c r="D9">
-        <v>1.862508110522576</v>
+        <v>4.109476059146802</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>43.08850051745068</v>
+        <v>56.27907279887734</v>
       </c>
       <c r="G9">
-        <v>2.158700090706351</v>
+        <v>3.797554234664956</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.33248045986535</v>
+        <v>10.70093695628312</v>
       </c>
       <c r="K9">
-        <v>15.10989173961265</v>
+        <v>18.19751797773685</v>
       </c>
       <c r="L9">
-        <v>6.599874545795946</v>
+        <v>11.39808295933965</v>
       </c>
       <c r="M9">
-        <v>12.7377407294666</v>
+        <v>19.38866122381246</v>
       </c>
       <c r="N9">
-        <v>18.76741642900828</v>
+        <v>27.17875517643633</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.42111375835309</v>
+        <v>22.46953693726351</v>
       </c>
       <c r="C10">
-        <v>8.008596582343122</v>
+        <v>4.658119907089354</v>
       </c>
       <c r="D10">
-        <v>1.828923837936441</v>
+        <v>4.10104390811188</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>44.4447382377687</v>
+        <v>56.4047800217245</v>
       </c>
       <c r="G10">
-        <v>2.144240721797626</v>
+        <v>3.792768864405269</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.274054113134826</v>
+        <v>10.67949928332964</v>
       </c>
       <c r="K10">
-        <v>16.12903785589339</v>
+        <v>18.33714805944453</v>
       </c>
       <c r="L10">
-        <v>6.688917910246872</v>
+        <v>11.37656691700152</v>
       </c>
       <c r="M10">
-        <v>13.21537500886541</v>
+        <v>19.39647667911516</v>
       </c>
       <c r="N10">
-        <v>18.62537063324993</v>
+        <v>27.13188146556964</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.01532514106507</v>
+        <v>22.56530330692735</v>
       </c>
       <c r="C11">
-        <v>8.300629428210065</v>
+        <v>4.799082242313384</v>
       </c>
       <c r="D11">
-        <v>1.812906679765252</v>
+        <v>4.09764315612389</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.08381357246874</v>
+        <v>56.47110649972041</v>
       </c>
       <c r="G11">
-        <v>2.137759327184166</v>
+        <v>3.790694210176289</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.248366552527414</v>
+        <v>10.67028905060694</v>
       </c>
       <c r="K11">
-        <v>16.58566023937545</v>
+        <v>18.4045173520458</v>
       </c>
       <c r="L11">
-        <v>6.732514857291741</v>
+        <v>11.36818071659314</v>
       </c>
       <c r="M11">
-        <v>13.43647961796551</v>
+        <v>19.4033167395059</v>
       </c>
       <c r="N11">
-        <v>18.56708349799979</v>
+        <v>27.11248739241948</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.23871444277564</v>
+        <v>22.60221509328984</v>
       </c>
       <c r="C12">
-        <v>8.409509909964925</v>
+        <v>4.851318959513901</v>
       </c>
       <c r="D12">
-        <v>1.806725350423739</v>
+        <v>4.096417646787603</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.32905600417458</v>
+        <v>56.49752875901181</v>
       </c>
       <c r="G12">
-        <v>2.135316549136902</v>
+        <v>3.789923203244189</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.238763751809394</v>
+        <v>10.66687891550706</v>
       </c>
       <c r="K12">
-        <v>16.75750906601075</v>
+        <v>18.43056646535892</v>
       </c>
       <c r="L12">
-        <v>6.749478083565834</v>
+        <v>11.36520611816253</v>
       </c>
       <c r="M12">
-        <v>13.52073160489008</v>
+        <v>19.40637710108</v>
       </c>
       <c r="N12">
-        <v>18.545976291062</v>
+        <v>27.10542057486501</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.19067667106058</v>
+        <v>22.59423709393707</v>
       </c>
       <c r="C13">
-        <v>8.386135414988088</v>
+        <v>4.840119718485556</v>
       </c>
       <c r="D13">
-        <v>1.808061926274368</v>
+        <v>4.096678816640289</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.27609351598952</v>
+        <v>56.49178032401944</v>
       </c>
       <c r="G13">
-        <v>2.135842168007869</v>
+        <v>3.790088604465572</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.240826408223952</v>
+        <v>10.66760990410779</v>
       </c>
       <c r="K13">
-        <v>16.72054632674211</v>
+        <v>18.42493266578932</v>
       </c>
       <c r="L13">
-        <v>6.745804397253384</v>
+        <v>11.36583781606234</v>
       </c>
       <c r="M13">
-        <v>13.50256344052399</v>
+        <v>19.40569712337438</v>
       </c>
       <c r="N13">
-        <v>18.55047825949833</v>
+        <v>27.10693020904971</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.03373639451054</v>
+        <v>22.56832723432153</v>
       </c>
       <c r="C14">
-        <v>8.309620920510561</v>
+        <v>4.80340270768501</v>
       </c>
       <c r="D14">
-        <v>1.812400519123394</v>
+        <v>4.097541086127164</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.10392451707544</v>
+        <v>56.47325415711227</v>
       </c>
       <c r="G14">
-        <v>2.137558139843768</v>
+        <v>3.790630486439484</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.247574050104364</v>
+        <v>10.67000694385784</v>
       </c>
       <c r="K14">
-        <v>16.59981991473164</v>
+        <v>18.40664974383556</v>
       </c>
       <c r="L14">
-        <v>6.733901275842769</v>
+        <v>11.36793196754111</v>
       </c>
       <c r="M14">
-        <v>13.4434006909229</v>
+        <v>19.40355910753843</v>
       </c>
       <c r="N14">
-        <v>18.56532732397726</v>
+        <v>27.11190044416795</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.93739263185926</v>
+        <v>22.55254023873944</v>
       </c>
       <c r="C15">
-        <v>8.262533273277887</v>
+        <v>4.780763571883891</v>
       </c>
       <c r="D15">
-        <v>1.815042635690239</v>
+        <v>4.098077353645817</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>44.99888979361751</v>
+        <v>56.46207613025911</v>
       </c>
       <c r="G15">
-        <v>2.138610660399281</v>
+        <v>3.790964306284422</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.251723281593133</v>
+        <v>10.67148529308947</v>
       </c>
       <c r="K15">
-        <v>16.52573162860293</v>
+        <v>18.39552047904853</v>
       </c>
       <c r="L15">
-        <v>6.726669691218244</v>
+        <v>11.36924086721216</v>
       </c>
       <c r="M15">
-        <v>13.40722945495122</v>
+        <v>19.40231067357059</v>
       </c>
       <c r="N15">
-        <v>18.5745501811081</v>
+        <v>27.11498096622363</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.3820563914877</v>
+        <v>22.46337027749373</v>
       </c>
       <c r="C16">
-        <v>7.989269454669741</v>
+        <v>4.648747982425137</v>
       </c>
       <c r="D16">
-        <v>1.829954901491765</v>
+        <v>4.101274885989739</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>44.40342280107132</v>
+        <v>56.40062866483636</v>
       </c>
       <c r="G16">
-        <v>2.144666044872592</v>
+        <v>3.79290649817194</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.275750480923906</v>
+        <v>10.6801120683857</v>
       </c>
       <c r="K16">
-        <v>16.09905018335318</v>
+        <v>18.33282146613615</v>
       </c>
       <c r="L16">
-        <v>6.686131743379882</v>
+        <v>11.37714313830677</v>
       </c>
       <c r="M16">
-        <v>13.20099994181773</v>
+        <v>19.39609558376099</v>
       </c>
       <c r="N16">
-        <v>18.6293117473727</v>
+        <v>27.13318772256555</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.0385480449098</v>
+        <v>22.40984620538849</v>
       </c>
       <c r="C17">
-        <v>7.81852716567456</v>
+        <v>4.565729501540309</v>
       </c>
       <c r="D17">
-        <v>1.838906960534906</v>
+        <v>4.103347701147515</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>44.04382402513958</v>
+        <v>56.36526818348596</v>
       </c>
       <c r="G17">
-        <v>2.148403938092953</v>
+        <v>3.794124096503371</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.290716082836381</v>
+        <v>10.68554285893635</v>
       </c>
       <c r="K17">
-        <v>15.83545384764544</v>
+        <v>18.29533290840635</v>
       </c>
       <c r="L17">
-        <v>6.662061241823043</v>
+        <v>11.38234957190259</v>
       </c>
       <c r="M17">
-        <v>13.07544440533653</v>
+        <v>19.39312267671333</v>
       </c>
       <c r="N17">
-        <v>18.66456452558403</v>
+        <v>27.14485097790902</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.83995750541621</v>
+        <v>22.37950147564801</v>
       </c>
       <c r="C18">
-        <v>7.719161501572843</v>
+        <v>4.517234473525926</v>
       </c>
       <c r="D18">
-        <v>1.843986945393562</v>
+        <v>4.104580897838279</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>43.83906968088535</v>
+        <v>56.34579081211035</v>
       </c>
       <c r="G18">
-        <v>2.150563081117514</v>
+        <v>3.794834054516823</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.299407982215344</v>
+        <v>10.68871752976191</v>
       </c>
       <c r="K18">
-        <v>15.68318387113728</v>
+        <v>18.27413395573264</v>
       </c>
       <c r="L18">
-        <v>6.648506833225146</v>
+        <v>11.38547612529526</v>
       </c>
       <c r="M18">
-        <v>13.00358950173036</v>
+        <v>19.3917220634027</v>
       </c>
       <c r="N18">
-        <v>18.68543321682138</v>
+        <v>27.15174094698009</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.77254687922721</v>
+        <v>22.36930371273196</v>
       </c>
       <c r="C19">
-        <v>7.685317208500584</v>
+        <v>4.500687096419203</v>
       </c>
       <c r="D19">
-        <v>1.845695376704783</v>
+        <v>4.105005481967098</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>43.77009865071226</v>
+        <v>56.33934424102191</v>
       </c>
       <c r="G19">
-        <v>2.151295776282793</v>
+        <v>3.795076090158531</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.302365456630679</v>
+        <v>10.68980119255437</v>
       </c>
       <c r="K19">
-        <v>15.63151737042801</v>
+        <v>18.26701925216386</v>
       </c>
       <c r="L19">
-        <v>6.64396712225254</v>
+        <v>11.38655739905971</v>
       </c>
       <c r="M19">
-        <v>12.97932361795241</v>
+        <v>19.39130102832155</v>
       </c>
       <c r="N19">
-        <v>18.69259914403005</v>
+        <v>27.15410496038415</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.0752206439955</v>
+        <v>22.41549847371769</v>
       </c>
       <c r="C20">
-        <v>7.83682254189451</v>
+        <v>4.574644101138114</v>
       </c>
       <c r="D20">
-        <v>1.837961208612156</v>
+        <v>4.103122808432388</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>44.08188855989385</v>
+        <v>56.36894331189652</v>
       </c>
       <c r="G20">
-        <v>2.148005095893872</v>
+        <v>3.793993485248094</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.289114292166759</v>
+        <v>10.68495946371946</v>
       </c>
       <c r="K20">
-        <v>15.86358256529841</v>
+        <v>18.29928612366263</v>
       </c>
       <c r="L20">
-        <v>6.664593474810415</v>
+        <v>11.38178168509346</v>
       </c>
       <c r="M20">
-        <v>13.08877281969129</v>
+        <v>19.39340714870871</v>
       </c>
       <c r="N20">
-        <v>18.66075013734175</v>
+        <v>27.14359061296282</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.07987809566616</v>
+        <v>22.57592022277272</v>
       </c>
       <c r="C21">
-        <v>8.332140879904829</v>
+        <v>4.814218421111915</v>
       </c>
       <c r="D21">
-        <v>1.811129395696161</v>
+        <v>4.0972861286132</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.15440628585878</v>
+        <v>56.47866037531979</v>
       </c>
       <c r="G21">
-        <v>2.13705382191578</v>
+        <v>3.790470926444279</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.245588754374303</v>
+        <v>10.66930077237373</v>
       </c>
       <c r="K21">
-        <v>16.63530940523809</v>
+        <v>18.41200541609706</v>
       </c>
       <c r="L21">
-        <v>6.737385109779037</v>
+        <v>11.36731141125724</v>
       </c>
       <c r="M21">
-        <v>13.46076416092999</v>
+        <v>19.40417435264279</v>
       </c>
       <c r="N21">
-        <v>18.5609391427551</v>
+        <v>27.11043304059817</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.72699412575956</v>
+        <v>22.68452518033241</v>
       </c>
       <c r="C22">
-        <v>8.645948315908131</v>
+        <v>4.964132929702125</v>
       </c>
       <c r="D22">
-        <v>1.792912488898144</v>
+        <v>4.093834415790802</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>45.87427513577904</v>
+        <v>56.55797358968915</v>
       </c>
       <c r="G22">
-        <v>2.12996285624909</v>
+        <v>3.788253907326868</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.217866268878238</v>
+        <v>10.65951895293819</v>
       </c>
       <c r="K22">
-        <v>17.13346630458092</v>
+        <v>18.48880084643245</v>
       </c>
       <c r="L22">
-        <v>6.787609953703079</v>
+        <v>11.35902602781717</v>
       </c>
       <c r="M22">
-        <v>13.7069323637507</v>
+        <v>19.41395071846771</v>
       </c>
       <c r="N22">
-        <v>18.50136063453244</v>
+        <v>27.09037890793604</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.38249959578356</v>
+        <v>22.62622487846568</v>
       </c>
       <c r="C23">
-        <v>8.479349052210178</v>
+        <v>4.884731227417599</v>
       </c>
       <c r="D23">
-        <v>1.802700772368253</v>
+        <v>4.095643547847706</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>45.4883128187882</v>
+        <v>56.5149497641645</v>
       </c>
       <c r="G23">
-        <v>2.1337421708615</v>
+        <v>3.789429405317659</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.232597283836199</v>
+        <v>10.66469844404204</v>
       </c>
       <c r="K23">
-        <v>16.86817143352906</v>
+        <v>18.44753305837215</v>
       </c>
       <c r="L23">
-        <v>6.760558059631089</v>
+        <v>11.36334103609303</v>
       </c>
       <c r="M23">
-        <v>13.57527527014954</v>
+        <v>19.40848301789329</v>
       </c>
       <c r="N23">
-        <v>18.53262185419062</v>
+        <v>27.10093431850422</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.05864439159309</v>
+        <v>22.41294175136615</v>
       </c>
       <c r="C24">
-        <v>7.828554955776211</v>
+        <v>4.570616198184545</v>
       </c>
       <c r="D24">
-        <v>1.838388990004334</v>
+        <v>4.10322435313889</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>44.0646734088451</v>
+        <v>56.3672791320874</v>
       </c>
       <c r="G24">
-        <v>2.148185380580768</v>
+        <v>3.794052503612066</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.289838187436231</v>
+        <v>10.68522305333189</v>
       </c>
       <c r="K24">
-        <v>15.85086782527637</v>
+        <v>18.2974977720101</v>
       </c>
       <c r="L24">
-        <v>6.663447768258823</v>
+        <v>11.38203801144958</v>
       </c>
       <c r="M24">
-        <v>13.08274601784822</v>
+        <v>19.39327757762565</v>
       </c>
       <c r="N24">
-        <v>18.66247275309689</v>
+        <v>27.14415984881433</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.59250486091508</v>
+        <v>22.19982352323789</v>
       </c>
       <c r="C25">
-        <v>7.082064798614154</v>
+        <v>4.203343371080052</v>
       </c>
       <c r="D25">
-        <v>1.87428192581519</v>
+        <v>4.112968923887691</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>42.60834819020813</v>
+        <v>56.24093608031255</v>
       </c>
       <c r="G25">
-        <v>2.164124140694426</v>
+        <v>3.799407695549662</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.354809185939497</v>
+        <v>10.70931435904219</v>
       </c>
       <c r="K25">
-        <v>14.72892178446145</v>
+        <v>18.14961202049352</v>
       </c>
       <c r="L25">
-        <v>6.56976270093973</v>
+        <v>11.40725212372903</v>
       </c>
       <c r="M25">
-        <v>12.56544438609139</v>
+        <v>19.38870829192001</v>
       </c>
       <c r="N25">
-        <v>18.82500786083041</v>
+        <v>27.19772792669321</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_185/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_185/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.05824823270341</v>
+        <v>17.48453579083288</v>
       </c>
       <c r="C2">
-        <v>3.908675865430624</v>
+        <v>6.49219927906675</v>
       </c>
       <c r="D2">
-        <v>4.121503047402403</v>
+        <v>1.89881274585217</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>56.17646139172216</v>
+        <v>41.60241331182485</v>
       </c>
       <c r="G2">
-        <v>3.80367133135899</v>
+        <v>2.176245068271637</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.72874743689601</v>
+        <v>6.405554142244394</v>
       </c>
       <c r="K2">
-        <v>18.05322289120867</v>
+        <v>13.88507102162646</v>
       </c>
       <c r="L2">
-        <v>11.43017458836336</v>
+        <v>6.509942272831309</v>
       </c>
       <c r="M2">
-        <v>19.39557772768245</v>
+        <v>12.19771132608524</v>
       </c>
       <c r="N2">
-        <v>27.24314928207849</v>
+        <v>18.96228362396943</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.97222296887922</v>
+        <v>16.71925749487181</v>
       </c>
       <c r="C3">
-        <v>3.69404948403072</v>
+        <v>6.066540800971762</v>
       </c>
       <c r="D3">
-        <v>4.128140318954047</v>
+        <v>1.914414088215222</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>56.15065750823043</v>
+        <v>40.96132441937123</v>
       </c>
       <c r="G3">
-        <v>3.80676274366199</v>
+        <v>2.184733793329258</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.74298259935834</v>
+        <v>6.441819058623569</v>
       </c>
       <c r="K3">
-        <v>17.99591887213701</v>
+        <v>13.30468713123882</v>
       </c>
       <c r="L3">
-        <v>11.44843577453275</v>
+        <v>6.474939635299383</v>
       </c>
       <c r="M3">
-        <v>19.40663935041466</v>
+        <v>11.95739593321896</v>
       </c>
       <c r="N3">
-        <v>27.27766621820211</v>
+        <v>19.06555568464263</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.92440233397227</v>
+        <v>16.24375475274875</v>
       </c>
       <c r="C4">
-        <v>3.555005187740258</v>
+        <v>5.792194746909758</v>
       </c>
       <c r="D4">
-        <v>4.132638628594753</v>
+        <v>1.923538331239253</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.14365848178091</v>
+        <v>40.58749916099325</v>
       </c>
       <c r="G4">
-        <v>3.808761097760898</v>
+        <v>2.190091375872687</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.75225109950155</v>
+        <v>6.465029515506414</v>
       </c>
       <c r="K4">
-        <v>17.96475574452864</v>
+        <v>12.94526375234062</v>
       </c>
       <c r="L4">
-        <v>11.4609957131474</v>
+        <v>6.456120606768183</v>
       </c>
       <c r="M4">
-        <v>19.41659691712251</v>
+        <v>11.81448260717383</v>
       </c>
       <c r="N4">
-        <v>27.30070333921554</v>
+        <v>19.13379932097904</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.9061870528579</v>
+        <v>16.04883466172484</v>
       </c>
       <c r="C5">
-        <v>3.496537203790947</v>
+        <v>5.677105110156783</v>
       </c>
       <c r="D5">
-        <v>4.134578389374596</v>
+        <v>1.927149119139413</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>56.14303311443463</v>
+        <v>40.44010644598397</v>
       </c>
       <c r="G5">
-        <v>3.809600730413812</v>
+        <v>2.192312615034695</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.75616124683982</v>
+        <v>6.474727896302038</v>
       </c>
       <c r="K5">
-        <v>17.95307711021086</v>
+        <v>12.79822351604808</v>
       </c>
       <c r="L5">
-        <v>11.46645323539191</v>
+        <v>6.449115000382763</v>
       </c>
       <c r="M5">
-        <v>19.42145157915181</v>
+        <v>11.75745026733296</v>
       </c>
       <c r="N5">
-        <v>27.31055495904103</v>
+        <v>19.16279516640626</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.90323965057105</v>
+        <v>16.01640735376272</v>
       </c>
       <c r="C6">
-        <v>3.48672022416215</v>
+        <v>5.657795161832686</v>
       </c>
       <c r="D6">
-        <v>4.134906936087219</v>
+        <v>1.927742399662205</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>56.143063825585</v>
+        <v>40.41592941631392</v>
       </c>
       <c r="G6">
-        <v>3.809741680625869</v>
+        <v>2.192683783494252</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.7568185773015</v>
+        <v>6.476352871896235</v>
       </c>
       <c r="K6">
-        <v>17.95119977230731</v>
+        <v>12.77377931259544</v>
       </c>
       <c r="L6">
-        <v>11.46737995393564</v>
+        <v>6.447991522109059</v>
       </c>
       <c r="M6">
-        <v>19.42230584121022</v>
+        <v>11.74805404310242</v>
       </c>
       <c r="N6">
-        <v>27.31221883228639</v>
+        <v>19.16768071792505</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.92415150748381</v>
+        <v>16.24113026875056</v>
       </c>
       <c r="C7">
-        <v>3.554223951726668</v>
+        <v>5.790655963159975</v>
       </c>
       <c r="D7">
-        <v>4.132664356604496</v>
+        <v>1.92358745345147</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.14364102891841</v>
+        <v>40.58549140549484</v>
       </c>
       <c r="G7">
-        <v>3.808772318838366</v>
+        <v>2.190121176702676</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.75230329346495</v>
+        <v>6.465159336350773</v>
       </c>
       <c r="K7">
-        <v>17.9645940986396</v>
+        <v>12.94328275303296</v>
       </c>
       <c r="L7">
-        <v>11.46106794108498</v>
+        <v>6.45602345290478</v>
       </c>
       <c r="M7">
-        <v>19.416659161365</v>
+        <v>11.8137085154572</v>
       </c>
       <c r="N7">
-        <v>27.30083432342846</v>
+        <v>19.13418560426766</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.02755855969775</v>
+        <v>17.22198114728754</v>
       </c>
       <c r="C8">
-        <v>3.836190635682674</v>
+        <v>6.34811140397847</v>
       </c>
       <c r="D8">
-        <v>4.123703963056392</v>
+        <v>1.90429084425392</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>56.16573041723102</v>
+        <v>41.37723493018481</v>
       </c>
       <c r="G8">
-        <v>3.804716503503792</v>
+        <v>2.179142658126492</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.73354634929117</v>
+        <v>6.417864053207269</v>
       </c>
       <c r="K8">
-        <v>18.03263565393399</v>
+        <v>13.68570212151209</v>
       </c>
       <c r="L8">
-        <v>11.43619162099668</v>
+        <v>6.497313452505347</v>
       </c>
       <c r="M8">
-        <v>19.39873530056292</v>
+        <v>12.11391081510725</v>
       </c>
       <c r="N8">
-        <v>27.25466821930199</v>
+        <v>18.99686992473396</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.26927907917691</v>
+        <v>19.09115765955622</v>
       </c>
       <c r="C9">
-        <v>4.330845605356325</v>
+        <v>7.339650502832093</v>
       </c>
       <c r="D9">
-        <v>4.109476059146802</v>
+        <v>1.862508110522709</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>56.27907279887734</v>
+        <v>43.08850051745053</v>
       </c>
       <c r="G9">
-        <v>3.797554234664956</v>
+        <v>2.158700090706217</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.70093695628312</v>
+        <v>6.33248045986541</v>
       </c>
       <c r="K9">
-        <v>18.19751797773685</v>
+        <v>15.10989173961262</v>
       </c>
       <c r="L9">
-        <v>11.39808295933965</v>
+        <v>6.599874545795839</v>
       </c>
       <c r="M9">
-        <v>19.38866122381246</v>
+        <v>12.73774072946655</v>
       </c>
       <c r="N9">
-        <v>27.17875517643633</v>
+        <v>18.76741642900828</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.46953693726351</v>
+        <v>20.4211137583531</v>
       </c>
       <c r="C10">
-        <v>4.658119907089354</v>
+        <v>8.008596582343106</v>
       </c>
       <c r="D10">
-        <v>4.10104390811188</v>
+        <v>1.828923837936387</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>56.4047800217245</v>
+        <v>44.4447382377688</v>
       </c>
       <c r="G10">
-        <v>3.792768864405269</v>
+        <v>2.144240721797756</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.67949928332964</v>
+        <v>6.274054113134889</v>
       </c>
       <c r="K10">
-        <v>18.33714805944453</v>
+        <v>16.12903785589341</v>
       </c>
       <c r="L10">
-        <v>11.37656691700152</v>
+        <v>6.688917910246943</v>
       </c>
       <c r="M10">
-        <v>19.39647667911516</v>
+        <v>13.21537500886544</v>
       </c>
       <c r="N10">
-        <v>27.13188146556964</v>
+        <v>18.62537063324999</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.56530330692735</v>
+        <v>21.01532514106506</v>
       </c>
       <c r="C11">
-        <v>4.799082242313384</v>
+        <v>8.300629428210007</v>
       </c>
       <c r="D11">
-        <v>4.09764315612389</v>
+        <v>1.812906679765248</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>56.47110649972041</v>
+        <v>45.08381357246869</v>
       </c>
       <c r="G11">
-        <v>3.790694210176289</v>
+        <v>2.137759327184031</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.67028905060694</v>
+        <v>6.248366552527411</v>
       </c>
       <c r="K11">
-        <v>18.4045173520458</v>
+        <v>16.58566023937547</v>
       </c>
       <c r="L11">
-        <v>11.36818071659314</v>
+        <v>6.732514857291746</v>
       </c>
       <c r="M11">
-        <v>19.4033167395059</v>
+        <v>13.43647961796549</v>
       </c>
       <c r="N11">
-        <v>27.11248739241948</v>
+        <v>18.56708349799975</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.60221509328984</v>
+        <v>21.23871444277565</v>
       </c>
       <c r="C12">
-        <v>4.851318959513901</v>
+        <v>8.409509909964765</v>
       </c>
       <c r="D12">
-        <v>4.096417646787603</v>
+        <v>1.806725350423871</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>56.49752875901181</v>
+        <v>45.32905600417452</v>
       </c>
       <c r="G12">
-        <v>3.789923203244189</v>
+        <v>2.135316549136637</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.66687891550706</v>
+        <v>6.238763751809389</v>
       </c>
       <c r="K12">
-        <v>18.43056646535892</v>
+        <v>16.75750906601075</v>
       </c>
       <c r="L12">
-        <v>11.36520611816253</v>
+        <v>6.749478083565856</v>
       </c>
       <c r="M12">
-        <v>19.40637710108</v>
+        <v>13.52073160489007</v>
       </c>
       <c r="N12">
-        <v>27.10542057486501</v>
+        <v>18.54597629106195</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.59423709393707</v>
+        <v>21.19067667106053</v>
       </c>
       <c r="C13">
-        <v>4.840119718485556</v>
+        <v>8.386135414988146</v>
       </c>
       <c r="D13">
-        <v>4.096678816640289</v>
+        <v>1.808061926274173</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>56.49178032401944</v>
+        <v>45.27609351598935</v>
       </c>
       <c r="G13">
-        <v>3.790088604465572</v>
+        <v>2.135842168007998</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.66760990410779</v>
+        <v>6.240826408223919</v>
       </c>
       <c r="K13">
-        <v>18.42493266578932</v>
+        <v>16.72054632674209</v>
       </c>
       <c r="L13">
-        <v>11.36583781606234</v>
+        <v>6.745804397253377</v>
       </c>
       <c r="M13">
-        <v>19.40569712337438</v>
+        <v>13.50256344052393</v>
       </c>
       <c r="N13">
-        <v>27.10693020904971</v>
+        <v>18.55047825949825</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.56832723432153</v>
+        <v>21.03373639451056</v>
       </c>
       <c r="C14">
-        <v>4.80340270768501</v>
+        <v>8.309620920510664</v>
       </c>
       <c r="D14">
-        <v>4.097541086127164</v>
+        <v>1.812400519123398</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>56.47325415711227</v>
+        <v>45.10392451707551</v>
       </c>
       <c r="G14">
-        <v>3.790630486439484</v>
+        <v>2.137558139844038</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.67000694385784</v>
+        <v>6.247574050104358</v>
       </c>
       <c r="K14">
-        <v>18.40664974383556</v>
+        <v>16.59981991473164</v>
       </c>
       <c r="L14">
-        <v>11.36793196754111</v>
+        <v>6.733901275842761</v>
       </c>
       <c r="M14">
-        <v>19.40355910753843</v>
+        <v>13.44340069092292</v>
       </c>
       <c r="N14">
-        <v>27.11190044416795</v>
+        <v>18.5653273239773</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.55254023873944</v>
+        <v>20.93739263185923</v>
       </c>
       <c r="C15">
-        <v>4.780763571883891</v>
+        <v>8.262533273277899</v>
       </c>
       <c r="D15">
-        <v>4.098077353645817</v>
+        <v>1.815042635690104</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>56.46207613025911</v>
+        <v>44.9988897936176</v>
       </c>
       <c r="G15">
-        <v>3.790964306284422</v>
+        <v>2.138610660399545</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.67148529308947</v>
+        <v>6.251723281593104</v>
       </c>
       <c r="K15">
-        <v>18.39552047904853</v>
+        <v>16.52573162860292</v>
       </c>
       <c r="L15">
-        <v>11.36924086721216</v>
+        <v>6.726669691218238</v>
       </c>
       <c r="M15">
-        <v>19.40231067357059</v>
+        <v>13.4072294549512</v>
       </c>
       <c r="N15">
-        <v>27.11498096622363</v>
+        <v>18.57455018110813</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.46337027749373</v>
+        <v>20.38205639148768</v>
       </c>
       <c r="C16">
-        <v>4.648747982425137</v>
+        <v>7.989269454670002</v>
       </c>
       <c r="D16">
-        <v>4.101274885989739</v>
+        <v>1.829954901491694</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>56.40062866483636</v>
+        <v>44.40342280107103</v>
       </c>
       <c r="G16">
-        <v>3.79290649817194</v>
+        <v>2.144666044872853</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.6801120683857</v>
+        <v>6.275750480923997</v>
       </c>
       <c r="K16">
-        <v>18.33282146613615</v>
+        <v>16.09905018335314</v>
       </c>
       <c r="L16">
-        <v>11.37714313830677</v>
+        <v>6.686131743379938</v>
       </c>
       <c r="M16">
-        <v>19.39609558376099</v>
+        <v>13.20099994181767</v>
       </c>
       <c r="N16">
-        <v>27.13318772256555</v>
+        <v>18.62931174737254</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.40984620538849</v>
+        <v>20.03854804490977</v>
       </c>
       <c r="C17">
-        <v>4.565729501540309</v>
+        <v>7.818527165674488</v>
       </c>
       <c r="D17">
-        <v>4.103347701147515</v>
+        <v>1.838906960534787</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>56.36526818348596</v>
+        <v>44.04382402513938</v>
       </c>
       <c r="G17">
-        <v>3.794124096503371</v>
+        <v>2.148403938092823</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.68554285893635</v>
+        <v>6.290716082836356</v>
       </c>
       <c r="K17">
-        <v>18.29533290840635</v>
+        <v>15.83545384764541</v>
       </c>
       <c r="L17">
-        <v>11.38234957190259</v>
+        <v>6.662061241823021</v>
       </c>
       <c r="M17">
-        <v>19.39312267671333</v>
+        <v>13.07544440533648</v>
       </c>
       <c r="N17">
-        <v>27.14485097790902</v>
+        <v>18.66456452558392</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.37950147564801</v>
+        <v>19.83995750541628</v>
       </c>
       <c r="C18">
-        <v>4.517234473525926</v>
+        <v>7.719161501572771</v>
       </c>
       <c r="D18">
-        <v>4.104580897838279</v>
+        <v>1.843986945393756</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>56.34579081211035</v>
+        <v>43.83906968088544</v>
       </c>
       <c r="G18">
-        <v>3.794834054516823</v>
+        <v>2.150563081117645</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.68871752976191</v>
+        <v>6.299407982215446</v>
       </c>
       <c r="K18">
-        <v>18.27413395573264</v>
+        <v>15.68318387113731</v>
       </c>
       <c r="L18">
-        <v>11.38547612529526</v>
+        <v>6.648506833225105</v>
       </c>
       <c r="M18">
-        <v>19.3917220634027</v>
+        <v>13.00358950173038</v>
       </c>
       <c r="N18">
-        <v>27.15174094698009</v>
+        <v>18.68543321682144</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.36930371273196</v>
+        <v>19.77254687922717</v>
       </c>
       <c r="C19">
-        <v>4.500687096419203</v>
+        <v>7.685317208500497</v>
       </c>
       <c r="D19">
-        <v>4.105005481967098</v>
+        <v>1.845695376704657</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>56.33934424102191</v>
+        <v>43.77009865071207</v>
       </c>
       <c r="G19">
-        <v>3.795076090158531</v>
+        <v>2.151295776282927</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.68980119255437</v>
+        <v>6.302365456630714</v>
       </c>
       <c r="K19">
-        <v>18.26701925216386</v>
+        <v>15.63151737042799</v>
       </c>
       <c r="L19">
-        <v>11.38655739905971</v>
+        <v>6.643967122252621</v>
       </c>
       <c r="M19">
-        <v>19.39130102832155</v>
+        <v>12.97932361795239</v>
       </c>
       <c r="N19">
-        <v>27.15410496038415</v>
+        <v>18.69259914402995</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.41549847371769</v>
+        <v>20.07522064399551</v>
       </c>
       <c r="C20">
-        <v>4.574644101138114</v>
+        <v>7.836822541894281</v>
       </c>
       <c r="D20">
-        <v>4.103122808432388</v>
+        <v>1.837961208611957</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>56.36894331189652</v>
+        <v>44.08188855989398</v>
       </c>
       <c r="G20">
-        <v>3.793993485248094</v>
+        <v>2.148005095893477</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.68495946371946</v>
+        <v>6.289114292166858</v>
       </c>
       <c r="K20">
-        <v>18.29928612366263</v>
+        <v>15.86358256529843</v>
       </c>
       <c r="L20">
-        <v>11.38178168509346</v>
+        <v>6.664593474810614</v>
       </c>
       <c r="M20">
-        <v>19.39340714870871</v>
+        <v>13.08877281969133</v>
       </c>
       <c r="N20">
-        <v>27.14359061296282</v>
+        <v>18.66075013734173</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.57592022277272</v>
+        <v>21.07987809566615</v>
       </c>
       <c r="C21">
-        <v>4.814218421111915</v>
+        <v>8.332140879904594</v>
       </c>
       <c r="D21">
-        <v>4.0972861286132</v>
+        <v>1.811129395696295</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>56.47866037531979</v>
+        <v>45.15440628585889</v>
       </c>
       <c r="G21">
-        <v>3.790470926444279</v>
+        <v>2.137053821915647</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.66930077237373</v>
+        <v>6.245588754374298</v>
       </c>
       <c r="K21">
-        <v>18.41200541609706</v>
+        <v>16.6353094052381</v>
       </c>
       <c r="L21">
-        <v>11.36731141125724</v>
+        <v>6.737385109779066</v>
       </c>
       <c r="M21">
-        <v>19.40417435264279</v>
+        <v>13.46076416092999</v>
       </c>
       <c r="N21">
-        <v>27.11043304059817</v>
+        <v>18.56093914275511</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.68452518033241</v>
+        <v>21.72699412575956</v>
       </c>
       <c r="C22">
-        <v>4.964132929702125</v>
+        <v>8.645948315908132</v>
       </c>
       <c r="D22">
-        <v>4.093834415790802</v>
+        <v>1.792912488898082</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>56.55797358968915</v>
+        <v>45.87427513577897</v>
       </c>
       <c r="G22">
-        <v>3.788253907326868</v>
+        <v>2.129962856249359</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.65951895293819</v>
+        <v>6.217866268878298</v>
       </c>
       <c r="K22">
-        <v>18.48880084643245</v>
+        <v>17.13346630458092</v>
       </c>
       <c r="L22">
-        <v>11.35902602781717</v>
+        <v>6.7876099537031</v>
       </c>
       <c r="M22">
-        <v>19.41395071846771</v>
+        <v>13.70693236375071</v>
       </c>
       <c r="N22">
-        <v>27.09037890793604</v>
+        <v>18.50136063453239</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.62622487846568</v>
+        <v>21.38249959578354</v>
       </c>
       <c r="C23">
-        <v>4.884731227417599</v>
+        <v>8.47934905221028</v>
       </c>
       <c r="D23">
-        <v>4.095643547847706</v>
+        <v>1.802700772368119</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>56.5149497641645</v>
+        <v>45.48831281878837</v>
       </c>
       <c r="G23">
-        <v>3.789429405317659</v>
+        <v>2.1337421708615</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.66469844404204</v>
+        <v>6.23259728383617</v>
       </c>
       <c r="K23">
-        <v>18.44753305837215</v>
+        <v>16.86817143352905</v>
       </c>
       <c r="L23">
-        <v>11.36334103609303</v>
+        <v>6.760558059631033</v>
       </c>
       <c r="M23">
-        <v>19.40848301789329</v>
+        <v>13.57527527014955</v>
       </c>
       <c r="N23">
-        <v>27.10093431850422</v>
+        <v>18.5326218541907</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.41294175136615</v>
+        <v>20.05864439159315</v>
       </c>
       <c r="C24">
-        <v>4.570616198184545</v>
+        <v>7.828554955776297</v>
       </c>
       <c r="D24">
-        <v>4.10322435313889</v>
+        <v>1.83838899000426</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>56.3672791320874</v>
+        <v>44.06467340884544</v>
       </c>
       <c r="G24">
-        <v>3.794052503612066</v>
+        <v>2.148185380580765</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.68522305333189</v>
+        <v>6.289838187436296</v>
       </c>
       <c r="K24">
-        <v>18.2974977720101</v>
+        <v>15.85086782527642</v>
       </c>
       <c r="L24">
-        <v>11.38203801144958</v>
+        <v>6.66344776825887</v>
       </c>
       <c r="M24">
-        <v>19.39327757762565</v>
+        <v>13.08274601784832</v>
       </c>
       <c r="N24">
-        <v>27.14415984881433</v>
+        <v>18.66247275309706</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.19982352323789</v>
+        <v>18.59250486091509</v>
       </c>
       <c r="C25">
-        <v>4.203343371080052</v>
+        <v>7.082064798614154</v>
       </c>
       <c r="D25">
-        <v>4.112968923887691</v>
+        <v>1.874281925815128</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>56.24093608031255</v>
+        <v>42.60834819020818</v>
       </c>
       <c r="G25">
-        <v>3.799407695549662</v>
+        <v>2.164124140694162</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.70931435904219</v>
+        <v>6.354809185939496</v>
       </c>
       <c r="K25">
-        <v>18.14961202049352</v>
+        <v>14.72892178446146</v>
       </c>
       <c r="L25">
-        <v>11.40725212372903</v>
+        <v>6.569762700939726</v>
       </c>
       <c r="M25">
-        <v>19.38870829192001</v>
+        <v>12.5654443860914</v>
       </c>
       <c r="N25">
-        <v>27.19772792669321</v>
+        <v>18.82500786083043</v>
       </c>
       <c r="O25">
         <v>0</v>
